--- a/Code/Results/Cases/Case_1_78/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_78/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.923113848975939</v>
+        <v>1.039150021316851</v>
       </c>
       <c r="D2">
-        <v>1.03652730329292</v>
+        <v>1.059125404531306</v>
       </c>
       <c r="E2">
-        <v>0.9376303621282097</v>
+        <v>1.037458983051559</v>
       </c>
       <c r="F2">
-        <v>1.018520418972967</v>
+        <v>1.064343318486736</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055318625118205</v>
+        <v>1.046178437044675</v>
       </c>
       <c r="J2">
-        <v>0.9478654093005028</v>
+        <v>1.044243598274249</v>
       </c>
       <c r="K2">
-        <v>1.047500170982717</v>
+        <v>1.061855761735471</v>
       </c>
       <c r="L2">
-        <v>0.9500328766385954</v>
+        <v>1.040249807895572</v>
       </c>
       <c r="M2">
-        <v>1.029727626604575</v>
+        <v>1.067059511524012</v>
       </c>
       <c r="N2">
-        <v>0.9492114869033916</v>
+        <v>1.045726543960213</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.941439508413305</v>
+        <v>1.041997152445915</v>
       </c>
       <c r="D3">
-        <v>1.043917079688461</v>
+        <v>1.06026309633505</v>
       </c>
       <c r="E3">
-        <v>0.953428068551968</v>
+        <v>1.039948474213141</v>
       </c>
       <c r="F3">
-        <v>1.028749176852025</v>
+        <v>1.065956170209472</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058904847627991</v>
+        <v>1.046592424316129</v>
       </c>
       <c r="J3">
-        <v>0.9636647076799157</v>
+        <v>1.046726335336052</v>
       </c>
       <c r="K3">
-        <v>1.054017255753628</v>
+        <v>1.06280680266365</v>
       </c>
       <c r="L3">
-        <v>0.9646936924931768</v>
+        <v>1.042544671551722</v>
       </c>
       <c r="M3">
-        <v>1.03902696068933</v>
+        <v>1.068485552901673</v>
       </c>
       <c r="N3">
-        <v>0.9650332220987082</v>
+        <v>1.048212806793418</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9524724535230982</v>
+        <v>1.043827916392179</v>
       </c>
       <c r="D4">
-        <v>1.04841950547536</v>
+        <v>1.06099358186998</v>
       </c>
       <c r="E4">
-        <v>0.9629497014349403</v>
+        <v>1.041548874624282</v>
       </c>
       <c r="F4">
-        <v>1.034963797037795</v>
+        <v>1.066992160615648</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061064571568746</v>
+        <v>1.046855848693336</v>
       </c>
       <c r="J4">
-        <v>0.9731753351945368</v>
+        <v>1.04832159276424</v>
       </c>
       <c r="K4">
-        <v>1.057966666286032</v>
+        <v>1.063415941239325</v>
       </c>
       <c r="L4">
-        <v>0.9735168619720426</v>
+        <v>1.044018887305748</v>
       </c>
       <c r="M4">
-        <v>1.044657787207417</v>
+        <v>1.06940019573547</v>
       </c>
       <c r="N4">
-        <v>0.9745573557952844</v>
+        <v>1.049810329670133</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9569397733135999</v>
+        <v>1.044594887325086</v>
       </c>
       <c r="D5">
-        <v>1.050252996963474</v>
+        <v>1.061299337961584</v>
       </c>
       <c r="E5">
-        <v>0.9668070764918202</v>
+        <v>1.042219242872169</v>
       </c>
       <c r="F5">
-        <v>1.037491141534223</v>
+        <v>1.067425895190763</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061938155658763</v>
+        <v>1.04696553568905</v>
       </c>
       <c r="J5">
-        <v>0.9770255119442507</v>
+        <v>1.048989614784935</v>
       </c>
       <c r="K5">
-        <v>1.059570145405667</v>
+        <v>1.063670545620072</v>
       </c>
       <c r="L5">
-        <v>0.9770881970140324</v>
+        <v>1.044636145022113</v>
       </c>
       <c r="M5">
-        <v>1.046943396546973</v>
+        <v>1.069782802142126</v>
       </c>
       <c r="N5">
-        <v>0.978413000237604</v>
+        <v>1.05047930035872</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9576804924956674</v>
+        <v>1.044723510009375</v>
       </c>
       <c r="D6">
-        <v>1.050557557967998</v>
+        <v>1.061350597722327</v>
       </c>
       <c r="E6">
-        <v>0.9674467654260486</v>
+        <v>1.042331659451509</v>
       </c>
       <c r="F6">
-        <v>1.037910779535046</v>
+        <v>1.067498616730894</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062082922697508</v>
+        <v>1.046983890929072</v>
       </c>
       <c r="J6">
-        <v>0.9776638489577675</v>
+        <v>1.049101626649734</v>
       </c>
       <c r="K6">
-        <v>1.059836223222685</v>
+        <v>1.063713208704255</v>
       </c>
       <c r="L6">
-        <v>0.9776802713470988</v>
+        <v>1.044739640351843</v>
       </c>
       <c r="M6">
-        <v>1.047322649269297</v>
+        <v>1.069846932332361</v>
       </c>
       <c r="N6">
-        <v>0.9790522437628985</v>
+        <v>1.050591471293215</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9525327871263347</v>
+        <v>1.043838175134322</v>
       </c>
       <c r="D7">
-        <v>1.048444229060821</v>
+        <v>1.06099767263769</v>
       </c>
       <c r="E7">
-        <v>0.9630017900864799</v>
+        <v>1.041557841618425</v>
       </c>
       <c r="F7">
-        <v>1.034997889364307</v>
+        <v>1.066997963212587</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061076374674971</v>
+        <v>1.04685731847544</v>
       </c>
       <c r="J7">
-        <v>0.9732273374175427</v>
+        <v>1.048330529130309</v>
       </c>
       <c r="K7">
-        <v>1.057988307089385</v>
+        <v>1.063419349056368</v>
       </c>
       <c r="L7">
-        <v>0.9735651002109486</v>
+        <v>1.044027144884217</v>
       </c>
       <c r="M7">
-        <v>1.044688635568145</v>
+        <v>1.069405315603793</v>
       </c>
       <c r="N7">
-        <v>0.9746094318674116</v>
+        <v>1.049819278726867</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.929496087038795</v>
+        <v>1.040114654032177</v>
       </c>
       <c r="D8">
-        <v>1.03908764403866</v>
+        <v>1.059511079928487</v>
       </c>
       <c r="E8">
-        <v>0.9431294850727177</v>
+        <v>1.038302525426937</v>
       </c>
       <c r="F8">
-        <v>1.022068729495823</v>
+        <v>1.064889988789598</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056566709016985</v>
+        <v>1.046319273790268</v>
       </c>
       <c r="J8">
-        <v>0.9533677779308377</v>
+        <v>1.045085018573256</v>
       </c>
       <c r="K8">
-        <v>1.049762951824625</v>
+        <v>1.062178475496173</v>
       </c>
       <c r="L8">
-        <v>0.9551391908829704</v>
+        <v>1.041027624318541</v>
       </c>
       <c r="M8">
-        <v>1.032957838433988</v>
+        <v>1.06754314460047</v>
       </c>
       <c r="N8">
-        <v>0.9547216695283123</v>
+        <v>1.046569159172557</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8808907496905644</v>
+        <v>1.033461639844988</v>
       </c>
       <c r="D9">
-        <v>1.019991930728177</v>
+        <v>1.056847156001075</v>
       </c>
       <c r="E9">
-        <v>0.9013374012029953</v>
+        <v>1.032483076390574</v>
       </c>
       <c r="F9">
-        <v>0.9954737085043259</v>
+        <v>1.061115570371905</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047130214779596</v>
+        <v>1.045336629414334</v>
       </c>
       <c r="J9">
-        <v>0.9114851975319285</v>
+        <v>1.039276890642237</v>
       </c>
       <c r="K9">
-        <v>1.032768771133298</v>
+        <v>1.059943194463023</v>
       </c>
       <c r="L9">
-        <v>0.9162634807203069</v>
+        <v>1.035657169669296</v>
       </c>
       <c r="M9">
-        <v>1.008640650993661</v>
+        <v>1.06419833732506</v>
       </c>
       <c r="N9">
-        <v>0.9127796110612371</v>
+        <v>1.040752783033675</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8392075325886025</v>
+        <v>1.028959719179649</v>
       </c>
       <c r="D10">
-        <v>1.004457716641691</v>
+        <v>1.055040125703402</v>
       </c>
       <c r="E10">
-        <v>0.8656968661413756</v>
+        <v>1.028543255723792</v>
       </c>
       <c r="F10">
-        <v>0.9735673359394229</v>
+        <v>1.058556958347916</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039258211190348</v>
+        <v>1.04465768424386</v>
       </c>
       <c r="J10">
-        <v>0.8756572151502905</v>
+        <v>1.035340552441626</v>
       </c>
       <c r="K10">
-        <v>1.018746949394185</v>
+        <v>1.05841904756932</v>
       </c>
       <c r="L10">
-        <v>0.8830035148913268</v>
+        <v>1.032015709648624</v>
       </c>
       <c r="M10">
-        <v>0.9884308237265579</v>
+        <v>1.061923853260197</v>
       </c>
       <c r="N10">
-        <v>0.8769007488350905</v>
+        <v>1.036810854781314</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8171013152044981</v>
+        <v>1.026993423980588</v>
       </c>
       <c r="D11">
-        <v>0.9965811677917644</v>
+        <v>1.054250000754078</v>
       </c>
       <c r="E11">
-        <v>0.8468910955559499</v>
+        <v>1.026822021362458</v>
       </c>
       <c r="F11">
-        <v>0.96234162999231</v>
+        <v>1.05743853842849</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035206252338849</v>
+        <v>1.044357892755899</v>
       </c>
       <c r="J11">
-        <v>0.8567135991628194</v>
+        <v>1.033619847777511</v>
       </c>
       <c r="K11">
-        <v>1.011567847572889</v>
+        <v>1.057750741385517</v>
       </c>
       <c r="L11">
-        <v>0.8654213061136619</v>
+        <v>1.030423486049693</v>
       </c>
       <c r="M11">
-        <v>0.9780104742634358</v>
+        <v>1.060927943803288</v>
       </c>
       <c r="N11">
-        <v>0.8579302307400538</v>
+        <v>1.035087706519208</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8079370850501596</v>
+        <v>1.026260411963452</v>
       </c>
       <c r="D12">
-        <v>0.9933949105333065</v>
+        <v>1.053955335478868</v>
       </c>
       <c r="E12">
-        <v>0.8391176021402436</v>
+        <v>1.026180299552383</v>
       </c>
       <c r="F12">
-        <v>0.9577743592226008</v>
+        <v>1.057021484816313</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033555886328994</v>
+        <v>1.04424565212695</v>
       </c>
       <c r="J12">
-        <v>0.8488751418605913</v>
+        <v>1.032978174470532</v>
       </c>
       <c r="K12">
-        <v>1.008649757191043</v>
+        <v>1.057501224984147</v>
       </c>
       <c r="L12">
-        <v>0.8581476268434929</v>
+        <v>1.029829661439194</v>
       </c>
       <c r="M12">
-        <v>0.9737578545126857</v>
+        <v>1.06055631986995</v>
       </c>
       <c r="N12">
-        <v>0.850080641929373</v>
+        <v>1.034445121962533</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8099551913032614</v>
+        <v>1.026417766714164</v>
       </c>
       <c r="D13">
-        <v>0.9940924945783474</v>
+        <v>1.054018595892063</v>
       </c>
       <c r="E13">
-        <v>0.8408282469020362</v>
+        <v>1.026318060095652</v>
       </c>
       <c r="F13">
-        <v>0.9587756645745907</v>
+        <v>1.057111018341069</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033917762606432</v>
+        <v>1.044269768368006</v>
       </c>
       <c r="J13">
-        <v>0.8506004904750341</v>
+        <v>1.033115931339588</v>
       </c>
       <c r="K13">
-        <v>1.009289337391976</v>
+        <v>1.057554805323536</v>
       </c>
       <c r="L13">
-        <v>0.8597485714210438</v>
+        <v>1.029957148850635</v>
       </c>
       <c r="M13">
-        <v>0.9746908388006352</v>
+        <v>1.060636111991754</v>
       </c>
       <c r="N13">
-        <v>0.8518084407367487</v>
+        <v>1.034583074462144</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8163663916131473</v>
+        <v>1.026932887462084</v>
       </c>
       <c r="D14">
-        <v>0.9963239037580019</v>
+        <v>1.054225667805472</v>
       </c>
       <c r="E14">
-        <v>0.8462671929072645</v>
+        <v>1.026769025464167</v>
       </c>
       <c r="F14">
-        <v>0.9619734469287957</v>
+        <v>1.057404097993234</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035073238836979</v>
+        <v>1.044348633033919</v>
       </c>
       <c r="J14">
-        <v>0.8560846570956752</v>
+        <v>1.033566858920398</v>
       </c>
       <c r="K14">
-        <v>1.011332540812869</v>
+        <v>1.057730142492616</v>
       </c>
       <c r="L14">
-        <v>0.8648376439995236</v>
+        <v>1.030374449796804</v>
       </c>
       <c r="M14">
-        <v>0.9776679408861907</v>
+        <v>1.060897260142671</v>
       </c>
       <c r="N14">
-        <v>0.8573003955030337</v>
+        <v>1.035034642411841</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8201747085960355</v>
+        <v>1.027249917221732</v>
       </c>
       <c r="D15">
-        <v>0.9976602839207671</v>
+        <v>1.054353094813986</v>
       </c>
       <c r="E15">
-        <v>0.8495011467412741</v>
+        <v>1.027046562319276</v>
       </c>
       <c r="F15">
-        <v>0.9638849106816358</v>
+        <v>1.05758445775922</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03576372961902</v>
+        <v>1.04439710653438</v>
       </c>
       <c r="J15">
-        <v>0.8593444046545358</v>
+        <v>1.033844352809326</v>
       </c>
       <c r="K15">
-        <v>1.012554285325805</v>
+        <v>1.057838003447716</v>
       </c>
       <c r="L15">
-        <v>0.867862773840504</v>
+        <v>1.030631241948349</v>
       </c>
       <c r="M15">
-        <v>0.9794457045715507</v>
+        <v>1.061057935818725</v>
       </c>
       <c r="N15">
-        <v>0.8605647722773263</v>
+        <v>1.03531253037392</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.840565957784739</v>
+        <v>1.029089850608596</v>
       </c>
       <c r="D16">
-        <v>1.004950254634769</v>
+        <v>1.055092399957751</v>
       </c>
       <c r="E16">
-        <v>0.8668548262392707</v>
+        <v>1.028657159523217</v>
       </c>
       <c r="F16">
-        <v>0.9742664367979191</v>
+        <v>1.058630958946533</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039510265149281</v>
+        <v>1.044677457057757</v>
       </c>
       <c r="J16">
-        <v>0.8768227822833824</v>
+        <v>1.035454400368494</v>
       </c>
       <c r="K16">
-        <v>1.019194285438525</v>
+        <v>1.058463223036413</v>
       </c>
       <c r="L16">
-        <v>0.8840854421319759</v>
+        <v>1.032121047955591</v>
       </c>
       <c r="M16">
-        <v>0.9890783037037114</v>
+        <v>1.061989712463483</v>
       </c>
       <c r="N16">
-        <v>0.8780679712072036</v>
+        <v>1.036924864385297</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8521035065653456</v>
+        <v>1.030239389969295</v>
       </c>
       <c r="D17">
-        <v>1.009171968009167</v>
+        <v>1.055554075576704</v>
       </c>
       <c r="E17">
-        <v>0.8766999583244302</v>
+        <v>1.029663298030007</v>
       </c>
       <c r="F17">
-        <v>0.9802457820436786</v>
+        <v>1.05928455495539</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04166422785493</v>
+        <v>1.044851750809584</v>
       </c>
       <c r="J17">
-        <v>0.886728492108275</v>
+        <v>1.036459931310561</v>
       </c>
       <c r="K17">
-        <v>1.023021068135604</v>
+        <v>1.058853156592918</v>
       </c>
       <c r="L17">
-        <v>0.8932807324530431</v>
+        <v>1.033051371645413</v>
       </c>
       <c r="M17">
-        <v>0.9946092725497342</v>
+        <v>1.062571207143699</v>
       </c>
       <c r="N17">
-        <v>0.8879877482762483</v>
+        <v>1.037931823296638</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8584723230329467</v>
+        <v>1.030908269730445</v>
       </c>
       <c r="D18">
-        <v>1.011531243556006</v>
+        <v>1.055822624978711</v>
       </c>
       <c r="E18">
-        <v>0.8821420577168059</v>
+        <v>1.030248694515163</v>
       </c>
       <c r="F18">
-        <v>0.9835776324578487</v>
+        <v>1.05966477389862</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042862845704812</v>
+        <v>1.044952854311567</v>
       </c>
       <c r="J18">
-        <v>0.8922009283314052</v>
+        <v>1.03704487911787</v>
       </c>
       <c r="K18">
-        <v>1.025153857650963</v>
+        <v>1.059079795203124</v>
       </c>
       <c r="L18">
-        <v>0.8983609314262486</v>
+        <v>1.033592528848901</v>
       </c>
       <c r="M18">
-        <v>0.997685989148407</v>
+        <v>1.062909320420922</v>
       </c>
       <c r="N18">
-        <v>0.8934679559865126</v>
+        <v>1.038517601796928</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.860589244188496</v>
+        <v>1.031136067399556</v>
       </c>
       <c r="D19">
-        <v>1.012319885487248</v>
+        <v>1.055914068939444</v>
       </c>
       <c r="E19">
-        <v>0.8839520824359697</v>
+        <v>1.030448053293765</v>
       </c>
       <c r="F19">
-        <v>0.9846898971897011</v>
+        <v>1.059794248227486</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04326268356247</v>
+        <v>1.044987233542029</v>
       </c>
       <c r="J19">
-        <v>0.8940205448094639</v>
+        <v>1.037244068952667</v>
       </c>
       <c r="K19">
-        <v>1.025865875478284</v>
+        <v>1.059156937639645</v>
       </c>
       <c r="L19">
-        <v>0.9000501520056606</v>
+        <v>1.033776800036706</v>
       </c>
       <c r="M19">
-        <v>0.9987122473974361</v>
+        <v>1.063024429240708</v>
       </c>
       <c r="N19">
-        <v>0.8952901565286833</v>
+        <v>1.038717074504137</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8509046134559708</v>
+        <v>1.030116224276146</v>
       </c>
       <c r="D20">
-        <v>1.008730117986095</v>
+        <v>1.055504618687371</v>
       </c>
       <c r="E20">
-        <v>0.8756760988860643</v>
+        <v>1.029555501246419</v>
       </c>
       <c r="F20">
-        <v>0.9796210319984643</v>
+        <v>1.059214535318953</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041439338367747</v>
+        <v>1.044833108660532</v>
       </c>
       <c r="J20">
-        <v>0.8856986744125548</v>
+        <v>1.036352209475441</v>
       </c>
       <c r="K20">
-        <v>1.022621176361305</v>
+        <v>1.058811403650558</v>
       </c>
       <c r="L20">
-        <v>0.8923247426501582</v>
+        <v>1.032951710884047</v>
       </c>
       <c r="M20">
-        <v>0.9940319429021144</v>
+        <v>1.062508928475099</v>
       </c>
       <c r="N20">
-        <v>0.8869564681212784</v>
+        <v>1.037823948484156</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8145091448843825</v>
+        <v>1.026781270987358</v>
       </c>
       <c r="D21">
-        <v>0.9956751110776467</v>
+        <v>1.054164723006706</v>
       </c>
       <c r="E21">
-        <v>0.8446909008582527</v>
+        <v>1.02663629376295</v>
       </c>
       <c r="F21">
-        <v>0.9610444767482234</v>
+        <v>1.057317838473081</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034737605672591</v>
+        <v>1.044325433882597</v>
       </c>
       <c r="J21">
-        <v>0.8544954978022673</v>
+        <v>1.033434142449718</v>
       </c>
       <c r="K21">
-        <v>1.010738885680896</v>
+        <v>1.057678545539637</v>
       </c>
       <c r="L21">
-        <v>0.8633629217151418</v>
+        <v>1.030251632034241</v>
       </c>
       <c r="M21">
-        <v>0.9768034675129721</v>
+        <v>1.060820405741682</v>
       </c>
       <c r="N21">
-        <v>0.8557089794211498</v>
+        <v>1.034901737468549</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7855943742302558</v>
+        <v>1.02466911457333</v>
       </c>
       <c r="D22">
-        <v>0.985829855423494</v>
+        <v>1.053315450480651</v>
       </c>
       <c r="E22">
-        <v>0.8202269635667183</v>
+        <v>1.024787065705802</v>
       </c>
       <c r="F22">
-        <v>0.9468630098087331</v>
+        <v>1.056115900266754</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029611449981171</v>
+        <v>1.044001113261727</v>
       </c>
       <c r="J22">
-        <v>0.829806401319818</v>
+        <v>1.031584773037088</v>
       </c>
       <c r="K22">
-        <v>1.001687350935197</v>
+        <v>1.056958867395153</v>
       </c>
       <c r="L22">
-        <v>0.8404578281101783</v>
+        <v>1.028540047064882</v>
       </c>
       <c r="M22">
-        <v>0.9635661025242768</v>
+        <v>1.059748915125141</v>
       </c>
       <c r="N22">
-        <v>0.8309848215898167</v>
+        <v>1.033049741739228</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8017244317085641</v>
+        <v>1.025790296127977</v>
       </c>
       <c r="D23">
-        <v>0.9912620796762646</v>
+        <v>1.053766321748507</v>
       </c>
       <c r="E23">
-        <v>0.8338558376156798</v>
+        <v>1.025768714220525</v>
       </c>
       <c r="F23">
-        <v>0.954708004274757</v>
+        <v>1.056753976553141</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03244754064995</v>
+        <v>1.04417353194909</v>
       </c>
       <c r="J23">
-        <v>0.843566689685415</v>
+        <v>1.032566578297383</v>
       </c>
       <c r="K23">
-        <v>1.006691769913773</v>
+        <v>1.057341092757154</v>
       </c>
       <c r="L23">
-        <v>0.8532222787970355</v>
+        <v>1.029448739467299</v>
       </c>
       <c r="M23">
-        <v>0.9708983759658268</v>
+        <v>1.060317879752316</v>
       </c>
       <c r="N23">
-        <v>0.8447646511432202</v>
+        <v>1.034032941275607</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8514474358713496</v>
+        <v>1.030171882573573</v>
       </c>
       <c r="D24">
-        <v>1.008930084470093</v>
+        <v>1.055526968406693</v>
       </c>
       <c r="E24">
-        <v>0.876139648081416</v>
+        <v>1.029604214501469</v>
       </c>
       <c r="F24">
-        <v>0.9799038027957896</v>
+        <v>1.05924617730552</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041541131741358</v>
+        <v>1.044841533972276</v>
       </c>
       <c r="J24">
-        <v>0.8861649310195261</v>
+        <v>1.036400889155805</v>
       </c>
       <c r="K24">
-        <v>1.022802171927945</v>
+        <v>1.058830272488253</v>
       </c>
       <c r="L24">
-        <v>0.8927575725056029</v>
+        <v>1.032996747876022</v>
       </c>
       <c r="M24">
-        <v>0.9942932670000411</v>
+        <v>1.062537072806612</v>
       </c>
       <c r="N24">
-        <v>0.8874233868661119</v>
+        <v>1.03787269729525</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8947022784739854</v>
+        <v>1.035192969359673</v>
       </c>
       <c r="D25">
-        <v>1.025318996146856</v>
+        <v>1.057541227992984</v>
       </c>
       <c r="E25">
-        <v>0.9131907279378312</v>
+        <v>1.033997832248593</v>
       </c>
       <c r="F25">
-        <v>1.002925411251556</v>
+        <v>1.062098654920482</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049791107139193</v>
+        <v>1.045594823040813</v>
       </c>
       <c r="J25">
-        <v>0.9233790421710499</v>
+        <v>1.040789431659957</v>
       </c>
       <c r="K25">
-        <v>1.037536582238247</v>
+        <v>1.06052696258283</v>
       </c>
       <c r="L25">
-        <v>0.9273048183693345</v>
+        <v>1.037056036024952</v>
       </c>
       <c r="M25">
-        <v>1.015478483090321</v>
+        <v>1.065070765653658</v>
       </c>
       <c r="N25">
-        <v>0.9246903463239893</v>
+        <v>1.04226747203313</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_78/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_78/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039150021316851</v>
+        <v>0.9231138489759371</v>
       </c>
       <c r="D2">
-        <v>1.059125404531306</v>
+        <v>1.036527303292919</v>
       </c>
       <c r="E2">
-        <v>1.037458983051559</v>
+        <v>0.9376303621282081</v>
       </c>
       <c r="F2">
-        <v>1.064343318486736</v>
+        <v>1.018520418972966</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046178437044675</v>
+        <v>1.055318625118204</v>
       </c>
       <c r="J2">
-        <v>1.044243598274249</v>
+        <v>0.9478654093005011</v>
       </c>
       <c r="K2">
-        <v>1.061855761735471</v>
+        <v>1.047500170982716</v>
       </c>
       <c r="L2">
-        <v>1.040249807895572</v>
+        <v>0.9500328766385937</v>
       </c>
       <c r="M2">
-        <v>1.067059511524012</v>
+        <v>1.029727626604573</v>
       </c>
       <c r="N2">
-        <v>1.045726543960213</v>
+        <v>0.9492114869033901</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041997152445915</v>
+        <v>0.9414395084133031</v>
       </c>
       <c r="D3">
-        <v>1.06026309633505</v>
+        <v>1.043917079688461</v>
       </c>
       <c r="E3">
-        <v>1.039948474213141</v>
+        <v>0.953428068551966</v>
       </c>
       <c r="F3">
-        <v>1.065956170209472</v>
+        <v>1.028749176852024</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046592424316129</v>
+        <v>1.058904847627991</v>
       </c>
       <c r="J3">
-        <v>1.046726335336052</v>
+        <v>0.9636647076799137</v>
       </c>
       <c r="K3">
-        <v>1.06280680266365</v>
+        <v>1.054017255753628</v>
       </c>
       <c r="L3">
-        <v>1.042544671551722</v>
+        <v>0.964693692493175</v>
       </c>
       <c r="M3">
-        <v>1.068485552901673</v>
+        <v>1.039026960689329</v>
       </c>
       <c r="N3">
-        <v>1.048212806793418</v>
+        <v>0.9650332220987062</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043827916392179</v>
+        <v>0.9524724535230968</v>
       </c>
       <c r="D4">
-        <v>1.06099358186998</v>
+        <v>1.04841950547536</v>
       </c>
       <c r="E4">
-        <v>1.041548874624282</v>
+        <v>0.9629497014349396</v>
       </c>
       <c r="F4">
-        <v>1.066992160615648</v>
+        <v>1.034963797037794</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046855848693336</v>
+        <v>1.061064571568745</v>
       </c>
       <c r="J4">
-        <v>1.04832159276424</v>
+        <v>0.9731753351945359</v>
       </c>
       <c r="K4">
-        <v>1.063415941239325</v>
+        <v>1.057966666286032</v>
       </c>
       <c r="L4">
-        <v>1.044018887305748</v>
+        <v>0.9735168619720417</v>
       </c>
       <c r="M4">
-        <v>1.06940019573547</v>
+        <v>1.044657787207416</v>
       </c>
       <c r="N4">
-        <v>1.049810329670133</v>
+        <v>0.9745573557952834</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044594887325086</v>
+        <v>0.9569397733135995</v>
       </c>
       <c r="D5">
-        <v>1.061299337961584</v>
+        <v>1.050252996963474</v>
       </c>
       <c r="E5">
-        <v>1.042219242872169</v>
+        <v>0.9668070764918199</v>
       </c>
       <c r="F5">
-        <v>1.067425895190763</v>
+        <v>1.037491141534223</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04696553568905</v>
+        <v>1.061938155658763</v>
       </c>
       <c r="J5">
-        <v>1.048989614784935</v>
+        <v>0.9770255119442501</v>
       </c>
       <c r="K5">
-        <v>1.063670545620072</v>
+        <v>1.059570145405667</v>
       </c>
       <c r="L5">
-        <v>1.044636145022113</v>
+        <v>0.9770881970140319</v>
       </c>
       <c r="M5">
-        <v>1.069782802142126</v>
+        <v>1.046943396546972</v>
       </c>
       <c r="N5">
-        <v>1.05047930035872</v>
+        <v>0.9784130002376036</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044723510009375</v>
+        <v>0.9576804924956658</v>
       </c>
       <c r="D6">
-        <v>1.061350597722327</v>
+        <v>1.050557557967997</v>
       </c>
       <c r="E6">
-        <v>1.042331659451509</v>
+        <v>0.9674467654260468</v>
       </c>
       <c r="F6">
-        <v>1.067498616730894</v>
+        <v>1.037910779535044</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046983890929072</v>
+        <v>1.062082922697507</v>
       </c>
       <c r="J6">
-        <v>1.049101626649734</v>
+        <v>0.9776638489577659</v>
       </c>
       <c r="K6">
-        <v>1.063713208704255</v>
+        <v>1.059836223222683</v>
       </c>
       <c r="L6">
-        <v>1.044739640351843</v>
+        <v>0.9776802713470973</v>
       </c>
       <c r="M6">
-        <v>1.069846932332361</v>
+        <v>1.047322649269295</v>
       </c>
       <c r="N6">
-        <v>1.050591471293215</v>
+        <v>0.9790522437628967</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043838175134322</v>
+        <v>0.9525327871263317</v>
       </c>
       <c r="D7">
-        <v>1.06099767263769</v>
+        <v>1.048444229060821</v>
       </c>
       <c r="E7">
-        <v>1.041557841618425</v>
+        <v>0.9630017900864768</v>
       </c>
       <c r="F7">
-        <v>1.066997963212587</v>
+        <v>1.034997889364306</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04685731847544</v>
+        <v>1.061076374674971</v>
       </c>
       <c r="J7">
-        <v>1.048330529130309</v>
+        <v>0.9732273374175396</v>
       </c>
       <c r="K7">
-        <v>1.063419349056368</v>
+        <v>1.057988307089385</v>
       </c>
       <c r="L7">
-        <v>1.044027144884217</v>
+        <v>0.9735651002109457</v>
       </c>
       <c r="M7">
-        <v>1.069405315603793</v>
+        <v>1.044688635568144</v>
       </c>
       <c r="N7">
-        <v>1.049819278726867</v>
+        <v>0.9746094318674083</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040114654032177</v>
+        <v>0.929496087038796</v>
       </c>
       <c r="D8">
-        <v>1.059511079928487</v>
+        <v>1.039087644038661</v>
       </c>
       <c r="E8">
-        <v>1.038302525426937</v>
+        <v>0.9431294850727184</v>
       </c>
       <c r="F8">
-        <v>1.064889988789598</v>
+        <v>1.022068729495824</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046319273790268</v>
+        <v>1.056566709016985</v>
       </c>
       <c r="J8">
-        <v>1.045085018573256</v>
+        <v>0.9533677779308387</v>
       </c>
       <c r="K8">
-        <v>1.062178475496173</v>
+        <v>1.049762951824626</v>
       </c>
       <c r="L8">
-        <v>1.041027624318541</v>
+        <v>0.9551391908829709</v>
       </c>
       <c r="M8">
-        <v>1.06754314460047</v>
+        <v>1.032957838433989</v>
       </c>
       <c r="N8">
-        <v>1.046569159172557</v>
+        <v>0.9547216695283129</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033461639844988</v>
+        <v>0.8808907496905617</v>
       </c>
       <c r="D9">
-        <v>1.056847156001075</v>
+        <v>1.019991930728176</v>
       </c>
       <c r="E9">
-        <v>1.032483076390574</v>
+        <v>0.9013374012029929</v>
       </c>
       <c r="F9">
-        <v>1.061115570371905</v>
+        <v>0.9954737085043251</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045336629414334</v>
+        <v>1.047130214779596</v>
       </c>
       <c r="J9">
-        <v>1.039276890642237</v>
+        <v>0.9114851975319258</v>
       </c>
       <c r="K9">
-        <v>1.059943194463023</v>
+        <v>1.032768771133298</v>
       </c>
       <c r="L9">
-        <v>1.035657169669296</v>
+        <v>0.9162634807203045</v>
       </c>
       <c r="M9">
-        <v>1.06419833732506</v>
+        <v>1.008640650993659</v>
       </c>
       <c r="N9">
-        <v>1.040752783033675</v>
+        <v>0.9127796110612343</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028959719179649</v>
+        <v>0.839207532588602</v>
       </c>
       <c r="D10">
-        <v>1.055040125703402</v>
+        <v>1.00445771664169</v>
       </c>
       <c r="E10">
-        <v>1.028543255723792</v>
+        <v>0.8656968661413754</v>
       </c>
       <c r="F10">
-        <v>1.058556958347916</v>
+        <v>0.9735673359394217</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04465768424386</v>
+        <v>1.039258211190347</v>
       </c>
       <c r="J10">
-        <v>1.035340552441626</v>
+        <v>0.8756572151502899</v>
       </c>
       <c r="K10">
-        <v>1.05841904756932</v>
+        <v>1.018746949394183</v>
       </c>
       <c r="L10">
-        <v>1.032015709648624</v>
+        <v>0.8830035148913266</v>
       </c>
       <c r="M10">
-        <v>1.061923853260197</v>
+        <v>0.9884308237265568</v>
       </c>
       <c r="N10">
-        <v>1.036810854781314</v>
+        <v>0.8769007488350899</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026993423980588</v>
+        <v>0.817101315204499</v>
       </c>
       <c r="D11">
-        <v>1.054250000754078</v>
+        <v>0.9965811677917655</v>
       </c>
       <c r="E11">
-        <v>1.026822021362458</v>
+        <v>0.8468910955559505</v>
       </c>
       <c r="F11">
-        <v>1.05743853842849</v>
+        <v>0.9623416299923115</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044357892755899</v>
+        <v>1.03520625233885</v>
       </c>
       <c r="J11">
-        <v>1.033619847777511</v>
+        <v>0.8567135991628199</v>
       </c>
       <c r="K11">
-        <v>1.057750741385517</v>
+        <v>1.01156784757289</v>
       </c>
       <c r="L11">
-        <v>1.030423486049693</v>
+        <v>0.8654213061136624</v>
       </c>
       <c r="M11">
-        <v>1.060927943803288</v>
+        <v>0.9780104742634371</v>
       </c>
       <c r="N11">
-        <v>1.035087706519208</v>
+        <v>0.8579302307400545</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026260411963452</v>
+        <v>0.807937085050159</v>
       </c>
       <c r="D12">
-        <v>1.053955335478868</v>
+        <v>0.9933949105333068</v>
       </c>
       <c r="E12">
-        <v>1.026180299552383</v>
+        <v>0.8391176021402428</v>
       </c>
       <c r="F12">
-        <v>1.057021484816313</v>
+        <v>0.9577743592226009</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04424565212695</v>
+        <v>1.033555886328995</v>
       </c>
       <c r="J12">
-        <v>1.032978174470532</v>
+        <v>0.848875141860591</v>
       </c>
       <c r="K12">
-        <v>1.057501224984147</v>
+        <v>1.008649757191043</v>
       </c>
       <c r="L12">
-        <v>1.029829661439194</v>
+        <v>0.8581476268434922</v>
       </c>
       <c r="M12">
-        <v>1.06055631986995</v>
+        <v>0.9737578545126857</v>
       </c>
       <c r="N12">
-        <v>1.034445121962533</v>
+        <v>0.8500806419293726</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026417766714164</v>
+        <v>0.809955191303262</v>
       </c>
       <c r="D13">
-        <v>1.054018595892063</v>
+        <v>0.9940924945783474</v>
       </c>
       <c r="E13">
-        <v>1.026318060095652</v>
+        <v>0.8408282469020372</v>
       </c>
       <c r="F13">
-        <v>1.057111018341069</v>
+        <v>0.958775664574591</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044269768368006</v>
+        <v>1.033917762606432</v>
       </c>
       <c r="J13">
-        <v>1.033115931339588</v>
+        <v>0.8506004904750346</v>
       </c>
       <c r="K13">
-        <v>1.057554805323536</v>
+        <v>1.009289337391976</v>
       </c>
       <c r="L13">
-        <v>1.029957148850635</v>
+        <v>0.8597485714210447</v>
       </c>
       <c r="M13">
-        <v>1.060636111991754</v>
+        <v>0.9746908388006356</v>
       </c>
       <c r="N13">
-        <v>1.034583074462144</v>
+        <v>0.8518084407367491</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026932887462084</v>
+        <v>0.8163663916131435</v>
       </c>
       <c r="D14">
-        <v>1.054225667805472</v>
+        <v>0.9963239037580016</v>
       </c>
       <c r="E14">
-        <v>1.026769025464167</v>
+        <v>0.8462671929072614</v>
       </c>
       <c r="F14">
-        <v>1.057404097993234</v>
+        <v>0.9619734469287945</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044348633033919</v>
+        <v>1.035073238836979</v>
       </c>
       <c r="J14">
-        <v>1.033566858920398</v>
+        <v>0.8560846570956718</v>
       </c>
       <c r="K14">
-        <v>1.057730142492616</v>
+        <v>1.011332540812869</v>
       </c>
       <c r="L14">
-        <v>1.030374449796804</v>
+        <v>0.8648376439995203</v>
       </c>
       <c r="M14">
-        <v>1.060897260142671</v>
+        <v>0.9776679408861895</v>
       </c>
       <c r="N14">
-        <v>1.035034642411841</v>
+        <v>0.8573003955030304</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027249917221732</v>
+        <v>0.8201747085960338</v>
       </c>
       <c r="D15">
-        <v>1.054353094813986</v>
+        <v>0.9976602839207657</v>
       </c>
       <c r="E15">
-        <v>1.027046562319276</v>
+        <v>0.8495011467412728</v>
       </c>
       <c r="F15">
-        <v>1.05758445775922</v>
+        <v>0.963884910681634</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04439710653438</v>
+        <v>1.035763729619019</v>
       </c>
       <c r="J15">
-        <v>1.033844352809326</v>
+        <v>0.8593444046545342</v>
       </c>
       <c r="K15">
-        <v>1.057838003447716</v>
+        <v>1.012554285325803</v>
       </c>
       <c r="L15">
-        <v>1.030631241948349</v>
+        <v>0.8678627738405026</v>
       </c>
       <c r="M15">
-        <v>1.061057935818725</v>
+        <v>0.9794457045715489</v>
       </c>
       <c r="N15">
-        <v>1.03531253037392</v>
+        <v>0.8605647722773246</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029089850608596</v>
+        <v>0.8405659577847374</v>
       </c>
       <c r="D16">
-        <v>1.055092399957751</v>
+        <v>1.004950254634769</v>
       </c>
       <c r="E16">
-        <v>1.028657159523217</v>
+        <v>0.8668548262392697</v>
       </c>
       <c r="F16">
-        <v>1.058630958946533</v>
+        <v>0.9742664367979186</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044677457057757</v>
+        <v>1.039510265149281</v>
       </c>
       <c r="J16">
-        <v>1.035454400368494</v>
+        <v>0.8768227822833811</v>
       </c>
       <c r="K16">
-        <v>1.058463223036413</v>
+        <v>1.019194285438525</v>
       </c>
       <c r="L16">
-        <v>1.032121047955591</v>
+        <v>0.8840854421319749</v>
       </c>
       <c r="M16">
-        <v>1.061989712463483</v>
+        <v>0.9890783037037109</v>
       </c>
       <c r="N16">
-        <v>1.036924864385297</v>
+        <v>0.8780679712072023</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030239389969295</v>
+        <v>0.8521035065653463</v>
       </c>
       <c r="D17">
-        <v>1.055554075576704</v>
+        <v>1.009171968009168</v>
       </c>
       <c r="E17">
-        <v>1.029663298030007</v>
+        <v>0.8766999583244306</v>
       </c>
       <c r="F17">
-        <v>1.05928455495539</v>
+        <v>0.9802457820436794</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044851750809584</v>
+        <v>1.04166422785493</v>
       </c>
       <c r="J17">
-        <v>1.036459931310561</v>
+        <v>0.886728492108276</v>
       </c>
       <c r="K17">
-        <v>1.058853156592918</v>
+        <v>1.023021068135605</v>
       </c>
       <c r="L17">
-        <v>1.033051371645413</v>
+        <v>0.8932807324530436</v>
       </c>
       <c r="M17">
-        <v>1.062571207143699</v>
+        <v>0.9946092725497351</v>
       </c>
       <c r="N17">
-        <v>1.037931823296638</v>
+        <v>0.8879877482762493</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030908269730445</v>
+        <v>0.8584723230329411</v>
       </c>
       <c r="D18">
-        <v>1.055822624978711</v>
+        <v>1.011531243556004</v>
       </c>
       <c r="E18">
-        <v>1.030248694515163</v>
+        <v>0.8821420577168009</v>
       </c>
       <c r="F18">
-        <v>1.05966477389862</v>
+        <v>0.9835776324578456</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044952854311567</v>
+        <v>1.042862845704811</v>
       </c>
       <c r="J18">
-        <v>1.03704487911787</v>
+        <v>0.8922009283313997</v>
       </c>
       <c r="K18">
-        <v>1.059079795203124</v>
+        <v>1.025153857650961</v>
       </c>
       <c r="L18">
-        <v>1.033592528848901</v>
+        <v>0.898360931426244</v>
       </c>
       <c r="M18">
-        <v>1.062909320420922</v>
+        <v>0.9976859891484041</v>
       </c>
       <c r="N18">
-        <v>1.038517601796928</v>
+        <v>0.8934679559865072</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031136067399556</v>
+        <v>0.8605892441884968</v>
       </c>
       <c r="D19">
-        <v>1.055914068939444</v>
+        <v>1.012319885487249</v>
       </c>
       <c r="E19">
-        <v>1.030448053293765</v>
+        <v>0.8839520824359705</v>
       </c>
       <c r="F19">
-        <v>1.059794248227486</v>
+        <v>0.9846898971897017</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044987233542029</v>
+        <v>1.04326268356247</v>
       </c>
       <c r="J19">
-        <v>1.037244068952667</v>
+        <v>0.8940205448094647</v>
       </c>
       <c r="K19">
-        <v>1.059156937639645</v>
+        <v>1.025865875478285</v>
       </c>
       <c r="L19">
-        <v>1.033776800036706</v>
+        <v>0.9000501520056614</v>
       </c>
       <c r="M19">
-        <v>1.063024429240708</v>
+        <v>0.9987122473974369</v>
       </c>
       <c r="N19">
-        <v>1.038717074504137</v>
+        <v>0.8952901565286836</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030116224276146</v>
+        <v>0.8509046134559691</v>
       </c>
       <c r="D20">
-        <v>1.055504618687371</v>
+        <v>1.008730117986094</v>
       </c>
       <c r="E20">
-        <v>1.029555501246419</v>
+        <v>0.8756760988860629</v>
       </c>
       <c r="F20">
-        <v>1.059214535318953</v>
+        <v>0.9796210319984642</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044833108660532</v>
+        <v>1.041439338367747</v>
       </c>
       <c r="J20">
-        <v>1.036352209475441</v>
+        <v>0.8856986744125532</v>
       </c>
       <c r="K20">
-        <v>1.058811403650558</v>
+        <v>1.022621176361305</v>
       </c>
       <c r="L20">
-        <v>1.032951710884047</v>
+        <v>0.8923247426501567</v>
       </c>
       <c r="M20">
-        <v>1.062508928475099</v>
+        <v>0.9940319429021139</v>
       </c>
       <c r="N20">
-        <v>1.037823948484156</v>
+        <v>0.8869564681212769</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026781270987358</v>
+        <v>0.8145091448843874</v>
       </c>
       <c r="D21">
-        <v>1.054164723006706</v>
+        <v>0.9956751110776476</v>
       </c>
       <c r="E21">
-        <v>1.02663629376295</v>
+        <v>0.8446909008582569</v>
       </c>
       <c r="F21">
-        <v>1.057317838473081</v>
+        <v>0.9610444767482254</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044325433882597</v>
+        <v>1.034737605672591</v>
       </c>
       <c r="J21">
-        <v>1.033434142449718</v>
+        <v>0.8544954978022715</v>
       </c>
       <c r="K21">
-        <v>1.057678545539637</v>
+        <v>1.010738885680898</v>
       </c>
       <c r="L21">
-        <v>1.030251632034241</v>
+        <v>0.8633629217151458</v>
       </c>
       <c r="M21">
-        <v>1.060820405741682</v>
+        <v>0.9768034675129742</v>
       </c>
       <c r="N21">
-        <v>1.034901737468549</v>
+        <v>0.8557089794211543</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02466911457333</v>
+        <v>0.7855943742302574</v>
       </c>
       <c r="D22">
-        <v>1.053315450480651</v>
+        <v>0.9858298554234942</v>
       </c>
       <c r="E22">
-        <v>1.024787065705802</v>
+        <v>0.8202269635667196</v>
       </c>
       <c r="F22">
-        <v>1.056115900266754</v>
+        <v>0.9468630098087334</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044001113261727</v>
+        <v>1.029611449981171</v>
       </c>
       <c r="J22">
-        <v>1.031584773037088</v>
+        <v>0.8298064013198194</v>
       </c>
       <c r="K22">
-        <v>1.056958867395153</v>
+        <v>1.001687350935197</v>
       </c>
       <c r="L22">
-        <v>1.028540047064882</v>
+        <v>0.8404578281101798</v>
       </c>
       <c r="M22">
-        <v>1.059748915125141</v>
+        <v>0.9635661025242772</v>
       </c>
       <c r="N22">
-        <v>1.033049741739228</v>
+        <v>0.830984821589818</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025790296127977</v>
+        <v>0.8017244317085664</v>
       </c>
       <c r="D23">
-        <v>1.053766321748507</v>
+        <v>0.9912620796762658</v>
       </c>
       <c r="E23">
-        <v>1.025768714220525</v>
+        <v>0.8338558376156815</v>
       </c>
       <c r="F23">
-        <v>1.056753976553141</v>
+        <v>0.9547080042747583</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04417353194909</v>
+        <v>1.032447540649951</v>
       </c>
       <c r="J23">
-        <v>1.032566578297383</v>
+        <v>0.8435666896854171</v>
       </c>
       <c r="K23">
-        <v>1.057341092757154</v>
+        <v>1.006691769913774</v>
       </c>
       <c r="L23">
-        <v>1.029448739467299</v>
+        <v>0.8532222787970374</v>
       </c>
       <c r="M23">
-        <v>1.060317879752316</v>
+        <v>0.9708983759658282</v>
       </c>
       <c r="N23">
-        <v>1.034032941275607</v>
+        <v>0.8447646511432222</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030171882573573</v>
+        <v>0.8514474358713512</v>
       </c>
       <c r="D24">
-        <v>1.055526968406693</v>
+        <v>1.008930084470092</v>
       </c>
       <c r="E24">
-        <v>1.029604214501469</v>
+        <v>0.8761396480814172</v>
       </c>
       <c r="F24">
-        <v>1.05924617730552</v>
+        <v>0.9799038027957898</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044841533972276</v>
+        <v>1.041541131741357</v>
       </c>
       <c r="J24">
-        <v>1.036400889155805</v>
+        <v>0.8861649310195275</v>
       </c>
       <c r="K24">
-        <v>1.058830272488253</v>
+        <v>1.022802171927945</v>
       </c>
       <c r="L24">
-        <v>1.032996747876022</v>
+        <v>0.8927575725056043</v>
       </c>
       <c r="M24">
-        <v>1.062537072806612</v>
+        <v>0.9942932670000414</v>
       </c>
       <c r="N24">
-        <v>1.03787269729525</v>
+        <v>0.8874233868661134</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.035192969359673</v>
+        <v>0.8947022784739862</v>
       </c>
       <c r="D25">
-        <v>1.057541227992984</v>
+        <v>1.025318996146856</v>
       </c>
       <c r="E25">
-        <v>1.033997832248593</v>
+        <v>0.9131907279378322</v>
       </c>
       <c r="F25">
-        <v>1.062098654920482</v>
+        <v>1.002925411251556</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045594823040813</v>
+        <v>1.049791107139193</v>
       </c>
       <c r="J25">
-        <v>1.040789431659957</v>
+        <v>0.9233790421710509</v>
       </c>
       <c r="K25">
-        <v>1.06052696258283</v>
+        <v>1.037536582238246</v>
       </c>
       <c r="L25">
-        <v>1.037056036024952</v>
+        <v>0.9273048183693353</v>
       </c>
       <c r="M25">
-        <v>1.065070765653658</v>
+        <v>1.015478483090321</v>
       </c>
       <c r="N25">
-        <v>1.04226747203313</v>
+        <v>0.9246903463239902</v>
       </c>
     </row>
   </sheetData>
